--- a/Git_BOSS통합버전+아웃룩일정추출/BMS_Report/월간 온습도_2_20231205_16_32_13.650.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/BMS_Report/월간 온습도_2_20231205_16_32_13.650.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaledgeasia-my.sharepoint.com/personal/isaac_shin_digitaledgedc_com/Documents/문서/UiPath/.repositories/DEK_RPA/Git_BOSS통합버전+아웃룩일정추출/BMS_Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_D5E1B5485638B4A2DB58F6FA5E8DF9FC23E5643A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C125A6B1-03E8-4CFB-963F-DF38F1B1AB8F}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_D5E1B5485638B4A2DB58F6FA5E8DF9FC23E5643A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B5BE30E-7004-4AF8-B63C-200C03E93318}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,11 +320,11 @@
     <t>TH-05-12</t>
   </si>
   <si>
-    <t>GS-ITM</t>
+    <t>Date : 2023-11-01~11-30</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Date : 2023-11-01~11-30</t>
+    <t>GS ITM</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -742,15 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,6 +781,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Comma [0] 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1106,7 +1106,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:D20"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1124,7 +1124,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -1144,35 +1144,35 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1195,19 +1195,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <v>22.071907412979034</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31">
         <v>49.732615790998103</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>20.146539642033577</v>
       </c>
       <c r="F5" s="10">
@@ -1227,19 +1227,19 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>22.211640562121932</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="33">
         <v>49.778383996796414</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>22.720117535474888</v>
       </c>
       <c r="F6" s="10">
@@ -1259,19 +1259,19 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>22.198602919309778</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="33">
         <v>49.215744780744259</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="25">
         <v>22.855572589306909</v>
       </c>
       <c r="F7" s="10">
@@ -1291,19 +1291,19 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="32">
         <v>22.074734211568746</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="33">
         <v>49.71714923985629</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="25">
         <v>24.971624514387187</v>
       </c>
       <c r="F8" s="10">
@@ -1323,19 +1323,19 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="32">
         <v>22.211296091021492</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="33">
         <v>49.266395442205003</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <v>22.958413123574935</v>
       </c>
       <c r="F9" s="10">
@@ -1355,19 +1355,19 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="32">
         <v>22.33115879858202</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="33">
         <v>48.82836098122182</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="25">
         <v>24.125286895524514</v>
       </c>
       <c r="F10" s="10">
@@ -1387,19 +1387,19 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="32">
         <v>22.64014711790929</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="33">
         <v>47.92069037743245</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="25">
         <v>28.507313857621401</v>
       </c>
       <c r="F11" s="10">
@@ -1419,19 +1419,19 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="32">
         <v>22.432369023209215</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="33">
         <v>48.518284284081396</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="25">
         <v>22.623332847566704</v>
       </c>
       <c r="F12" s="10">
@@ -1451,19 +1451,19 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="32">
         <v>23.331922804206467</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="33">
         <v>46.060803702057619</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="25">
         <v>23.280137624072154</v>
       </c>
       <c r="F13" s="10">
@@ -1479,19 +1479,19 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="32">
         <v>23.345393553110732</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="33">
         <v>46.229863988466285</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="12"/>
       <c r="G14" s="9">
         <v>22.831463977896451</v>
@@ -1503,19 +1503,19 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="32">
         <v>23.589179597036846</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="33">
         <v>45.413326607817908</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="12"/>
       <c r="G15" s="9">
         <v>22.542855054914931</v>
@@ -1527,19 +1527,19 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="32">
         <v>22.368759949416134</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="33">
         <v>51.001594724382421</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="12"/>
       <c r="G16" s="9">
         <v>23.026786830380434</v>
@@ -1551,19 +1551,19 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="32">
         <v>22.256922306004743</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="33">
         <v>51.295616964395016</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="12"/>
       <c r="G17" s="9">
         <v>23.282433556400235</v>
@@ -1575,15 +1575,15 @@
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="29"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="12"/>
       <c r="G18" s="9">
         <v>23.230628948930789</v>
@@ -1595,15 +1595,15 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="12"/>
       <c r="G19" s="9">
         <v>23.339102320110747</v>
@@ -1615,15 +1615,15 @@
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="29"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="12"/>
       <c r="G20" s="9">
         <v>24.290178624932668</v>
@@ -1635,14 +1635,14 @@
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="28">
         <v>26.564726700756612</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="29">
         <v>37.967034163437354</v>
       </c>
       <c r="E21" s="9">
